--- a/suivi.xlsx
+++ b/suivi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unice-my.sharepoint.com/personal/antoine-marie_michelozzi_etu_unice_fr/Documents/SI3/Projet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A37381-0ADC-4788-9C52-1810E723A752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{11472D09-C194-4C1E-AA47-164B647EE822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -209,6 +211,9 @@
     <t>Deux mains de deux cartes chacunes sont entrées sans les couleurs, et le programme renvoit la main gagnante par la carte la plus haute</t>
   </si>
   <si>
+    <t>Groupe</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <u/>
@@ -1350,9 +1355,6 @@
   </si>
   <si>
     <t>Deux mains de 5 cartes avec des couleurs  sont entrées et le programme renvoit la main gagnante en testant si une des deux mains à une couleur</t>
-  </si>
-  <si>
-    <t>Groupe</t>
   </si>
   <si>
     <r>
@@ -1939,28 +1941,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">/////////////////////////////// </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="26"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Passage au Jeu de Poker</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="26"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> ///////////////////////////////</t>
-    </r>
+    <t>Passage au Jeu de Poker</t>
   </si>
   <si>
     <t>Jeu de poker à 1 joueur, qui renvoit le meilleur type de main possible pour une main de 7 carte (main + flop + rivière + turn)</t>
@@ -2187,7 +2168,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2217,12 +2198,6 @@
       <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2266,23 +2241,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="26"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="26"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2431,33 +2393,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2472,7 +2422,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2490,23 +2440,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2517,24 +2452,39 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
+    <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="17">
     <dxf>
       <font>
-        <color rgb="FF9C5700"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2650,46 +2600,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2715,36 +2625,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3046,747 +2926,747 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I475016"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="D14" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="70.625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="45.625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="48.5" style="7" customWidth="1"/>
-    <col min="6" max="9" width="15.625" style="7" customWidth="1"/>
-    <col min="10" max="16384" width="11" style="7"/>
+    <col min="1" max="1" width="15.625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="70.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="45.625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="48.5" style="4" customWidth="1"/>
+    <col min="6" max="9" width="15.625" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:9" ht="24.75" customHeight="1">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="26" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="27"/>
-      <c r="I1" s="28"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="19"/>
     </row>
-    <row r="2" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:9" ht="24.75" customHeight="1">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="8" t="s">
+      <c r="E2" s="16"/>
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+    <row r="3" spans="1:9" ht="99.75" customHeight="1">
+      <c r="A3" s="5">
         <f>ROW(A3)-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="6">
         <v>45205</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="6">
         <v>45206</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <f t="shared" ref="A4:A6" si="0">ROW(A4)-2</f>
+    <row r="4" spans="1:9" ht="99.75" customHeight="1">
+      <c r="A4" s="5">
+        <f>ROW(A4)-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="6">
+        <v>45212</v>
+      </c>
+      <c r="H4" s="6">
+        <v>45213</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="99.75" customHeight="1">
+      <c r="A5" s="5">
+        <f>ROW(A5)-2</f>
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="6">
+        <v>45221</v>
+      </c>
+      <c r="H5" s="6">
+        <v>45224</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="99.75" customHeight="1">
+      <c r="A6" s="5">
+        <f>ROW(A6)-2</f>
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="6">
+        <v>45221</v>
+      </c>
+      <c r="H6" s="6">
+        <v>45224</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="99.75" customHeight="1">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="6">
+        <v>45221</v>
+      </c>
+      <c r="H7" s="6">
+        <v>45224</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="99.75" customHeight="1">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="6">
+        <v>45221</v>
+      </c>
+      <c r="H8" s="6">
+        <v>45224</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="99.75" customHeight="1">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="6">
+        <v>45221</v>
+      </c>
+      <c r="H9" s="6">
+        <v>45224</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="99.75" customHeight="1">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="6">
+        <v>45224</v>
+      </c>
+      <c r="H10" s="6">
+        <v>45226</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="99.75" customHeight="1">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="6">
+        <v>45224</v>
+      </c>
+      <c r="H11" s="6">
+        <v>45226</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="99.75" customHeight="1">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="B12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="D12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="6">
+        <v>45224</v>
+      </c>
+      <c r="H12" s="6">
+        <v>45226</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="99.75" customHeight="1">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="6">
+        <v>45224</v>
+      </c>
+      <c r="H13" s="6">
+        <v>45226</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="99.75" customHeight="1">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="6">
+        <v>45224</v>
+      </c>
+      <c r="H14" s="6">
+        <v>45226</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="99.75" customHeight="1">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="6">
+        <v>45227</v>
+      </c>
+      <c r="H15" s="6">
+        <v>45233</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="99.75" customHeight="1">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="6">
+        <v>45227</v>
+      </c>
+      <c r="H16" s="6">
+        <v>45233</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="99.75" customHeight="1">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="6">
+        <v>45233</v>
+      </c>
+      <c r="H17" s="6">
+        <v>45233</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="99.75" customHeight="1">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="6">
+        <v>45233</v>
+      </c>
+      <c r="H18" s="6">
+        <v>45233</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="99.75" customHeight="1">
+      <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="B19" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="10">
-        <v>45212</v>
-      </c>
-      <c r="H4" s="10">
-        <v>45213</v>
-      </c>
-      <c r="I4" s="11" t="s">
+      <c r="G19" s="6">
+        <v>45233</v>
+      </c>
+      <c r="H19" s="6">
+        <v>45233</v>
+      </c>
+      <c r="I19" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B5" s="8" t="s">
+    <row r="20" spans="1:9" ht="99.75" customHeight="1">
+      <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="B20" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="6">
+        <v>45233</v>
+      </c>
+      <c r="H20" s="6">
+        <v>45233</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="99.75" customHeight="1">
+      <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="8" t="s">
+      <c r="B21" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="6">
+        <v>45231</v>
+      </c>
+      <c r="H21" s="6">
+        <v>45234</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="99.75" customHeight="1">
+      <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="G5" s="10">
-        <v>45221</v>
-      </c>
-      <c r="H5" s="10">
-        <v>45224</v>
-      </c>
-      <c r="I5" s="11" t="s">
+      <c r="B22" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="6">
+        <v>45236</v>
+      </c>
+      <c r="H22" s="6">
+        <v>45236</v>
+      </c>
+      <c r="I22" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B6" s="8" t="s">
+    <row r="23" spans="1:9" ht="99.75" customHeight="1">
+      <c r="A23" s="11">
         <v>22</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="B23" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="12">
+        <v>45236</v>
+      </c>
+      <c r="H23" s="12">
+        <v>45236</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="99.75" customHeight="1">
+      <c r="A24" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="24"/>
+    </row>
+    <row r="25" spans="1:9" ht="99.75" customHeight="1">
+      <c r="A25" s="5">
         <v>23</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="B25" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="6">
+        <v>45240</v>
+      </c>
+      <c r="H25" s="6">
+        <v>45244</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="99.75" customHeight="1">
+      <c r="A26" s="5">
         <v>24</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="10">
-        <v>45221</v>
-      </c>
-      <c r="H6" s="10">
-        <v>45224</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="10">
-        <v>45221</v>
-      </c>
-      <c r="H7" s="10">
-        <v>45224</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="10">
-        <v>45221</v>
-      </c>
-      <c r="H8" s="10">
-        <v>45224</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="10">
-        <v>45221</v>
-      </c>
-      <c r="H9" s="10">
-        <v>45224</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>9</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="10">
-        <v>45224</v>
-      </c>
-      <c r="H10" s="10">
-        <v>45226</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="10">
-        <v>45224</v>
-      </c>
-      <c r="H11" s="10">
-        <v>45226</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>11</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="10">
-        <v>45224</v>
-      </c>
-      <c r="H12" s="10">
-        <v>45226</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <v>12</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="10">
-        <v>45224</v>
-      </c>
-      <c r="H13" s="10">
-        <v>45226</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>13</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="10">
-        <v>45224</v>
-      </c>
-      <c r="H14" s="10">
-        <v>45226</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
-        <v>14</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="10">
-        <v>45261</v>
-      </c>
-      <c r="H15" s="10">
-        <v>45232</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
-        <v>15</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="10">
-        <v>45292</v>
-      </c>
-      <c r="H16" s="10">
-        <v>45232</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
-        <v>16</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="10">
-        <v>45233</v>
-      </c>
-      <c r="H17" s="10">
-        <v>45233</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+      <c r="B26" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="10">
-        <v>45233</v>
-      </c>
-      <c r="H18" s="10">
-        <v>45233</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
-        <v>18</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="10">
-        <v>45233</v>
-      </c>
-      <c r="H19" s="10">
-        <v>45233</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
-        <v>19</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="10">
-        <v>45233</v>
-      </c>
-      <c r="H20" s="10">
-        <v>45233</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
-        <v>20</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="10">
-        <v>45231</v>
-      </c>
-      <c r="H21" s="10">
-        <v>45234</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
-        <v>21</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="10">
-        <v>45236</v>
-      </c>
-      <c r="H22" s="10">
-        <v>45236</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15">
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="16">
-        <v>45236</v>
-      </c>
-      <c r="H23" s="16">
-        <v>45236</v>
-      </c>
-      <c r="I23" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="25"/>
-    </row>
-    <row r="25" spans="1:9" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
-        <v>23</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" s="10">
+      <c r="G26" s="6">
         <v>45240</v>
       </c>
-      <c r="H25" s="10">
-        <v>45244</v>
-      </c>
-      <c r="I25" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
-        <v>24</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" s="10">
-        <v>45240</v>
-      </c>
-      <c r="H26" s="10">
+      <c r="H26" s="6">
         <v>45244</v>
       </c>
       <c r="I26" s="20"/>
     </row>
-    <row r="27" spans="1:9" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
+    <row r="27" spans="1:9" ht="99.75" customHeight="1">
+      <c r="A27" s="5">
         <v>25</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" s="10">
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="6">
         <v>45240</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H27" s="6">
         <v>45244</v>
       </c>
       <c r="I27" s="21"/>
     </row>
-    <row r="766" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B766" s="7" t="s">
+    <row r="766" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B766" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="475016" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B475016" s="7" t="s">
+    <row r="475016" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B475016" s="4" t="s">
         <v>77</v>
       </c>
     </row>
@@ -3797,79 +3677,89 @@
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="G1:I1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A28:G1048576">
-    <cfRule type="cellIs" dxfId="20" priority="52" operator="equal">
+  <conditionalFormatting sqref="A4:A6 A3:F3 F2 A2:D2 F4:F7 E5:E7 D4:D11 H10:H14 A7:B14 B15:B21 A15:A23 D13:E23 G12:G23 I3:I23 F23 H23 D25:E25 A25 F25:I27">
+    <cfRule type="cellIs" dxfId="16" priority="28" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H28:J1048576">
-    <cfRule type="cellIs" dxfId="17" priority="49" operator="equal">
+  <conditionalFormatting sqref="A1 B4:B6 E8:F8 E12:F12 F14:F15 F17 F19 F21 A28:G1048576 B22:C23 E4:F4 F9 F10:G11 A26:D27 B25:C25">
+    <cfRule type="cellIs" dxfId="15" priority="40" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:F7 I3:I23 F23 F25:F27 I25:I27">
+    <cfRule type="containsText" dxfId="14" priority="34" operator="containsText" text="PF">
+      <formula>NOT(ISERROR(SEARCH("PF",F3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:I2 G3:H6 J7:J25 H15:H19">
+    <cfRule type="cellIs" dxfId="13" priority="33" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J7:J27">
-    <cfRule type="cellIs" dxfId="15" priority="45" operator="equal">
+  <conditionalFormatting sqref="G1 H28:J1048576 H21 J26:J27">
+    <cfRule type="cellIs" dxfId="12" priority="37" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D2 F2 A3:F3 I3:I23 A4:A6 F4:F7 E5:E7 A7:B14 H10:H14 G12:G23 D13:E23 B15:B21 A15:A23 A25:E25 F25:I27">
-    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
-      <formula>"F"</formula>
+  <conditionalFormatting sqref="G7:G9">
+    <cfRule type="cellIs" dxfId="11" priority="24" operator="equal">
+      <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D12">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
-      <formula>"F"</formula>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="cellIs" dxfId="10" priority="22" operator="equal">
+      <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E9:E11">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
-      <formula>"F"</formula>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="cellIs" dxfId="9" priority="19" operator="equal">
+      <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:F4 F14:F15 F17 F19 F21 A1 B4:C4 B5:B6 E8:F8 F9 F10:G11 E12:F12 B22:C23 A26:D27">
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
-      <formula>"F"</formula>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="cellIs" dxfId="8" priority="18" operator="equal">
+      <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F13 F16 F18 F20 F22:F23">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+  <conditionalFormatting sqref="F13 F16 F18 F20 F22">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:F15 F17 F19 F21">
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="PF">
+    <cfRule type="containsText" dxfId="6" priority="12" operator="containsText" text="PF">
       <formula>NOT(ISERROR(SEARCH("PF",F14)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1 H21">
-    <cfRule type="cellIs" dxfId="5" priority="11" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:H9">
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:I2 H15:H19">
-    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H22:H23">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+  <conditionalFormatting sqref="H22">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I23 F4:F7 F25:F27 I25:I27 F23">
-    <cfRule type="containsText" dxfId="0" priority="10" operator="containsText" text="PF">
-      <formula>NOT(ISERROR(SEARCH("PF",F3)))</formula>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
